--- a/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
+++ b/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="498">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1528,6 +1528,9 @@
   </si>
   <si>
     <t>8/16,29/2023</t>
+  </si>
+  <si>
+    <t>10/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1912,6 +1915,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1924,20 +1936,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2637,7 +2640,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2683,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2747,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2807,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2873,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2936,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3034,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3093,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3158,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3201,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3276,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3462,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,7 +3528,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3586,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3652,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3708,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3783,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3826,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3892,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3948,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4046,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4109,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,8 +4209,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K777" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K777"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K778" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K778"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4588,9 +4591,9 @@
   <dimension ref="A2:L712"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A682"/>
+      <pane ySplit="3990" topLeftCell="A688" activePane="bottomLeft"/>
       <selection activeCell="D705" sqref="D705"/>
-      <selection pane="bottomLeft" activeCell="A682" sqref="A682"/>
+      <selection pane="bottomLeft" activeCell="D703" sqref="D703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,14 +4623,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4638,14 +4641,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4656,14 +4659,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4689,18 +4692,18 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -23679,17 +23682,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -23722,12 +23725,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K777"/>
+  <dimension ref="A2:K778"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A713" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A716" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F10:F13"/>
-      <selection pane="bottomLeft" activeCell="D729" sqref="D729"/>
+      <selection pane="bottomLeft" activeCell="F728" sqref="F728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23757,14 +23760,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -23775,14 +23778,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -23793,14 +23796,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -23826,18 +23829,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -23884,7 +23887,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.991999999999905</v>
+        <v>5.491999999999905</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -23894,7 +23897,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.791999999999973</v>
+        <v>16.291999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -40447,25 +40450,33 @@
       <c r="A728" s="40">
         <v>45200</v>
       </c>
-      <c r="B728" s="20"/>
-      <c r="C728" s="13"/>
+      <c r="B728" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C728" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H728" s="39"/>
+      <c r="G728" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H728" s="39">
+        <v>2</v>
+      </c>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
-      <c r="K728" s="20"/>
+      <c r="K728" s="20" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B729" s="20"/>
+      <c r="A729" s="40"/>
+      <c r="B729" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C729" s="13"/>
       <c r="D729" s="39"/>
       <c r="E729" s="9"/>
@@ -40474,50 +40485,60 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H729" s="39"/>
+      <c r="H729" s="39">
+        <v>1</v>
+      </c>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
-      <c r="K729" s="20"/>
+      <c r="K729" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B730" s="15"/>
-      <c r="C730" s="41"/>
-      <c r="D730" s="42"/>
+        <v>45231</v>
+      </c>
+      <c r="B730" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C730" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D730" s="39"/>
       <c r="E730" s="9"/>
-      <c r="F730" s="15"/>
-      <c r="G730" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H730" s="42"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H730" s="39"/>
       <c r="I730" s="9"/>
-      <c r="J730" s="12"/>
-      <c r="K730" s="15"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="49">
+        <v>45239</v>
+      </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B731" s="20"/>
-      <c r="C731" s="13"/>
-      <c r="D731" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B731" s="15"/>
+      <c r="C731" s="41"/>
+      <c r="D731" s="42"/>
       <c r="E731" s="9"/>
-      <c r="F731" s="20"/>
-      <c r="G731" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="39"/>
+      <c r="F731" s="15"/>
+      <c r="G731" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="42"/>
       <c r="I731" s="9"/>
-      <c r="J731" s="11"/>
-      <c r="K731" s="20"/>
+      <c r="J731" s="12"/>
+      <c r="K731" s="15"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -40535,7 +40556,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -40553,7 +40574,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -40571,7 +40592,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -40589,7 +40610,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -40607,7 +40628,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -40625,7 +40646,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -40643,7 +40664,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -40661,7 +40682,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -40679,7 +40700,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -40697,7 +40718,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -40715,7 +40736,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -40733,7 +40754,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -40751,7 +40772,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -40769,7 +40790,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -40787,7 +40808,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -40805,7 +40826,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -40823,7 +40844,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -40841,7 +40862,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -40859,7 +40880,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -40877,7 +40898,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -40895,7 +40916,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -40913,7 +40934,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -40931,7 +40952,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -40949,7 +40970,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -40967,7 +40988,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -40985,7 +41006,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -41003,7 +41024,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -41021,7 +41042,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -41039,7 +41060,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -41057,7 +41078,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -41075,7 +41096,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -41093,7 +41114,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -41111,7 +41132,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -41129,7 +41150,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -41147,7 +41168,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -41165,7 +41186,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -41183,7 +41204,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -41201,7 +41222,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -41219,7 +41240,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -41237,7 +41258,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -41255,7 +41276,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -41273,7 +41294,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -41291,7 +41312,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -41309,7 +41330,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -41327,7 +41348,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -41342,6 +41363,24 @@
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B778" s="20"/>
+      <c r="C778" s="13"/>
+      <c r="D778" s="39"/>
+      <c r="E778" s="9"/>
+      <c r="F778" s="20"/>
+      <c r="G778" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H778" s="39"/>
+      <c r="I778" s="9"/>
+      <c r="J778" s="11"/>
+      <c r="K778" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
